--- a/xlsx/用户生成内容_intext.xlsx
+++ b/xlsx/用户生成内容_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>用户生成内容</t>
   </si>
@@ -29,7 +29,7 @@
     <t>网站</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_用户生成内容</t>
+    <t>政策_政策_维基百科_用户生成内容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%89%87</t>
   </si>
   <si>
-    <t>圖片</t>
+    <t>图片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E9%A2%91</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>社交網路服務</t>
+    <t>社交网路服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%9D%83</t>
   </si>
   <si>
-    <t>著作权</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E5%AE%A1%E6%9F%A5</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2%E6%A8%A1%E7%B5%84</t>
   </si>
   <si>
-    <t>遊戲模組</t>
+    <t>游戏模组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>民間記者</t>
+    <t>民间记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E6%99%BA%E6%85%A7</t>
@@ -161,15 +161,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BA%BA%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>同人小說</t>
+    <t>同人小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E6%A8%A1%E7%BB%84</t>
   </si>
   <si>
-    <t>游戏模组</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%86%85%E5%AE%B9</t>
   </si>
   <si>
@@ -197,19 +194,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%B6%88%E5%90%88%E4%B8%80%E8%80%85</t>
   </si>
   <si>
-    <t>產消合一者</t>
+    <t>产消合一者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1273,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1360,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1389,10 +1386,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1418,10 +1415,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1447,10 +1444,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1476,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1505,10 +1502,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1534,10 +1531,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
